--- a/Projects/NESTLEBAKINGUS/Data/Nestle Creamers Template V1.7.xlsx
+++ b/Projects/NESTLEBAKINGUS/Data/Nestle Creamers Template V1.7.xlsx
@@ -63,6 +63,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_s" vbProcedure="false">KPIs!$A$1:$E$59</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="__" vbProcedure="false">KPIs!$A$1:$E$59</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="__0" vbProcedure="false">KPIs!$A$1:$E$59</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="__1" vbProcedure="false">KPIs!$A$1:$E$59</definedName>
@@ -82,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="121">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -867,17 +868,17 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B10" activeCellId="1" sqref="U21 B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="63.5222672064777"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="152.323886639676"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="55.2753036437247"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="64.0566801619433"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="153.716599190283"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="55.7004048582996"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3148,30 +3149,30 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
+      <selection pane="topLeft" activeCell="L3" activeCellId="1" sqref="U21 L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="50.1336032388664"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="50.5587044534413"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="2" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="2" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="79.6963562753036"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="52.8097165991903"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="27.1012145748988"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="49.165991902834"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="39.7408906882591"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="2" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="2" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="80.3400809716599"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="53.2388663967611"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="27.3157894736842"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="40.0607287449393"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="2" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="2" width="146.218623481781"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="2" width="147.502024291498"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3481,23 +3482,23 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="U21 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
@@ -3594,19 +3595,19 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="U21 E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.17004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.57085020242915"/>
@@ -3701,26 +3702,26 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+      <selection pane="topLeft" activeCell="N2" activeCellId="1" sqref="U21 N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="130.255060728745"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="33.7408906882591"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="131.433198380567"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="37.2793522267206"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -3820,24 +3821,24 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="U21 L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.7449392712551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="60.5222672064777"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="53.4534412955466"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="61.0566801619433"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="53.8825910931174"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -4063,15 +4064,15 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="1" sqref="U21 D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="30.3157894736842"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="67.2712550607288"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="67.8056680161943"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="2" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4385,10 +4386,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="U21" activeCellId="0" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4396,7 +4397,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
         <v>116</v>
       </c>
@@ -4435,6 +4436,30 @@
       </c>
       <c r="M1" s="0" t="n">
         <v>12</v>
+      </c>
+      <c r="N1" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4772,6 +4797,442 @@
         <v>118</v>
       </c>
       <c r="M13" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="O15" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="O16" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="P16" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="N17" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="O17" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q17" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="O18" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q18" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="R18" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="O19" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="P19" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q19" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="R19" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="S19" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="N20" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="O20" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q20" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="R20" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="S20" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="T20" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="O21" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="P21" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q21" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="R21" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="S21" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="T21" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U21" s="24" t="s">
         <v>118</v>
       </c>
     </row>

--- a/Projects/NESTLEBAKINGUS/Data/Nestle Creamers Template V1.7.xlsx
+++ b/Projects/NESTLEBAKINGUS/Data/Nestle Creamers Template V1.7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -64,6 +64,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="__" vbProcedure="false">KPIs!$A$1:$E$59</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="__0" vbProcedure="false">KPIs!$A$1:$E$59</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="__1" vbProcedure="false">KPIs!$A$1:$E$59</definedName>
@@ -83,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="121">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -184,6 +186,9 @@
     <t xml:space="preserve">Category Shelf Position by Scene (linear inches numerator result)</t>
   </si>
   <si>
+    <t xml:space="preserve">SKU Relevant</t>
+  </si>
+  <si>
     <t xml:space="preserve">Output</t>
   </si>
   <si>
@@ -235,6 +240,9 @@
     <t xml:space="preserve">score</t>
   </si>
   <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">net_len_ign_stack</t>
   </si>
   <si>
@@ -259,6 +267,9 @@
     <t xml:space="preserve">numerator/denominator * 100</t>
   </si>
   <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
     <t xml:space="preserve">facings</t>
   </si>
   <si>
@@ -316,12 +327,6 @@
     <t xml:space="preserve">1 if product found 0 if product is OOS</t>
   </si>
   <si>
-    <t xml:space="preserve">SKU Relevant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shelf position of SKUs by scene</t>
   </si>
   <si>
@@ -332,9 +337,6 @@
   </si>
   <si>
     <t xml:space="preserve">Count of SKU Facings including stacking on shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
   </si>
   <si>
     <t xml:space="preserve">Shelf position of Category by scene</t>
@@ -868,17 +870,17 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B10" activeCellId="1" sqref="U21 B10"/>
+      <selection pane="bottomLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="44.8825910931174"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="64.0566801619433"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="153.716599190283"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="55.7004048582996"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="45.6315789473684"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="65.2348178137652"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="156.502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="56.5587044534413"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3146,36 +3148,36 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L3" activeCellId="1" sqref="U21 L3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="50.5587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="51.417004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="2" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="2" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="80.3400809716599"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="53.2388663967611"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="27.3157894736842"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="49.4898785425101"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="40.0607287449393"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="2" width="147.502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="2" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="2" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="2" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="81.7327935222672"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="50.2388663967611"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="40.7044534412955"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="6.53441295546559"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="2" width="150.182186234818"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3185,7 +3187,7 @@
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -3204,10 +3206,10 @@
         <v>38</v>
       </c>
       <c r="J1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>3</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>40</v>
@@ -3239,8 +3241,11 @@
       <c r="U1" s="9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V1" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
@@ -3250,20 +3255,19 @@
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="12" t="n">
+      <c r="D2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H2" s="14" t="n">
+      <c r="G2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3271,33 +3275,37 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="O2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="N2" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
-      <c r="R2" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="T2" s="13" t="s">
+      <c r="R2" s="16"/>
+      <c r="S2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U2" s="16"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="16"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="n">
         <v>2</v>
       </c>
@@ -3307,52 +3315,55 @@
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="12" t="n">
+      <c r="D3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="13" t="n">
+      <c r="G3" s="11"/>
+      <c r="H3" s="13" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
-      </c>
-      <c r="H3" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
       </c>
       <c r="I3" s="14" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="N3" s="13" t="s">
+      <c r="L3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="O3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U3" s="16"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V3" s="16"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="n">
         <v>3</v>
       </c>
@@ -3362,18 +3373,17 @@
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="12" t="n">
+      <c r="D4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H4" s="14" t="n">
+      <c r="G4" s="11"/>
+      <c r="H4" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3381,33 +3391,37 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="N4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" s="16"/>
+      <c r="L4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="O4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="Q4" s="16"/>
-      <c r="R4" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U4" s="16"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R4" s="16"/>
+      <c r="S4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="V4" s="16"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="17" t="n">
         <v>9</v>
       </c>
@@ -3417,50 +3431,53 @@
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="12" t="n">
+      <c r="D5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="13" t="n">
+      <c r="G5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="13" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
-      </c>
-      <c r="H5" s="14" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
       </c>
       <c r="I5" s="14" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" s="6" t="s">
+      <c r="J5" s="14" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="O5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="N5" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
-      <c r="R5" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="T5" s="13" t="s">
-        <v>57</v>
+      <c r="R5" s="16"/>
+      <c r="S5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3482,23 +3499,23 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="U21 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.9554655870445"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
@@ -3517,31 +3534,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3555,25 +3572,25 @@
         <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3595,19 +3612,19 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="U21 E6"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.57085020242915"/>
@@ -3627,28 +3644,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3665,22 +3682,22 @@
         <v>17</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3702,26 +3719,26 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="1" sqref="U21 N2"/>
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="131.433198380567"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="34.0647773279352"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="133.789473684211"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="34.5991902834008"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="37.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -3739,37 +3756,37 @@
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3783,23 +3800,23 @@
         <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H2" s="20"/>
       <c r="N2" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3820,25 +3837,25 @@
   </sheetPr>
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="U21 L2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.1740890688259"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="61.0566801619433"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="53.8825910931174"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="62.1295546558704"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="54.7368421052632"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3853,40 +3870,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>46</v>
-      </c>
       <c r="N1" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3900,7 +3917,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="F2" s="12" t="n">
         <v>0</v>
@@ -3910,19 +3927,19 @@
         <v>0</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -3939,7 +3956,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="F3" s="12" t="n">
         <v>0</v>
@@ -3952,13 +3969,13 @@
         <v>84</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>85</v>
@@ -3978,7 +3995,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>86</v>
@@ -3991,16 +4008,16 @@
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>87</v>
@@ -4017,7 +4034,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>86</v>
@@ -4033,13 +4050,13 @@
         <v>84</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>88</v>
@@ -4064,21 +4081,21 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="1" sqref="U21 D21"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="30.7449392712551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="67.8056680161943"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="68.8785425101215"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="2" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>89</v>
@@ -4388,7 +4405,7 @@
   </sheetPr>
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="U21" activeCellId="0" sqref="U21"/>
     </sheetView>
   </sheetViews>
